--- a/loaded_influencer_data/phungovahe/phungovahe_video.xlsx
+++ b/loaded_influencer_data/phungovahe/phungovahe_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,39 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="C2" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>주디돌 - 아이스워터 립글로스 09💕 JUDYDOLL 웹 사이트의 HALINH20 코드 🛒🫶🏻 🫶🏻 로키 립 오일 느낌의 바이브, 수분 공급 및 틴팅이 너무 잘 🤩 감사합니다</t>
+          <t>JUDYDOLL - Ice Watery Lip Gloss 09 💕
+🛒 HALINH20 code for JUDYDOLL websites 🫶🏻
+🫶🏻 lowkey lip oil feeling vibe, hydrating and tinting way too well 🤩 thank you</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.906040268456376</v>
+        <v>1.927152317880795</v>
       </c>
       <c r="I2" t="n">
-        <v>1.644295302013423</v>
+        <v>1.662251655629139</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.261744966442953</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1946308724832215</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,13 +566,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9245</v>
+        <v>9261</v>
       </c>
       <c r="C3" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -580,23 +582,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>VT 화장품 - 리드 샷 300 @vtcosmetics_global @VTcosmetics_official #vtfluencer #reedleshot</t>
+          <t>VT cosmetics - Reedle Shot 300
+@vtcosmetics_global @VTcosmetics_official
+#vtfluencer #reedleshot</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.687398593834505</v>
+        <v>1.857250836842673</v>
       </c>
       <c r="I3" t="n">
-        <v>1.460248783126014</v>
+        <v>1.479321887485153</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2271498107084911</v>
+        <v>0.3779289493575208</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1297998918334235</v>
+        <v>0.1295756397797214</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -616,10 +620,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
@@ -632,23 +636,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>로우키는 만드는 것이 재미있었다 🤓 #silentreview #silence #koreanskincare #kbeauty #review #anua #yesstyle</t>
+          <t>Lowkey was fun to make 🤓
+#silentreview #silence #koreanskincare #kbeauty #review #anua #yesstyle</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23.64583333333333</v>
+        <v>23.53545734840699</v>
       </c>
       <c r="I4" t="n">
-        <v>19.89583333333333</v>
+        <v>19.83556012332991</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.699897225077081</v>
       </c>
       <c r="L4" t="n">
-        <v>1.041666666666667</v>
+        <v>1.027749229188078</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,300 +669,558 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@phungovahe/video/7486825787413384470</t>
+          <t>https://www.tiktok.com/@phungovahe/video/7489420967882542358</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142</v>
+        <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>#grwm #grwmroutine #grwmmakeup</t>
+          <t>@Centellian24 @centellian24_official @YesStyle @YesStyleInfluencers
+Pookie go get it and use my code PTHL277 on YesStyle</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15.49295774647887</v>
+        <v>19.6078431372549</v>
       </c>
       <c r="I5" t="n">
-        <v>13.38028169014084</v>
+        <v>15.96638655462185</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.112676056338028</v>
+        <v>3.641456582633054</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7042253521126761</v>
+        <v>1.120448179271709</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@phungovahe/video/7489019347122277654</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>@DALBA
+I was trying to do a different look, it went so wrong, and was super lazy to take it of, it was so cakey and had maps everywhere, so I tried to fix it with so much powder and other products and looked so cakey but after 1-2 layers of this product, it layered into one perfect look. So shocked</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6.268364348677767</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.701273261508325</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.567091087169442</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4897159647404506</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@phungovahe/video/7488305344662310166</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>457</v>
+      </c>
+      <c r="C7" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>@Eqqualberry @Eqqualberry @YesStyleInfluencers @YesStyle
+use PTHL277 on YesStyle to get this baby ✨</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>28.22757111597374</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.78774617067834</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.439824945295405</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.969365426695842</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@phungovahe/video/7487994818526792982</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>408</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>@Eqqualberry @Eqqualberry
+@YesStyleInfluencers @YesStyle
+Eqqualberry Swimming Pool Toner ✨
+great for gentle exfoliation</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>21.32352941176471</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.44117647058824</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.715686274509804</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@phungovahe/video/7487708924880112918</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>471</v>
+      </c>
+      <c r="C9" t="n">
+        <v>83</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>@delphyr_official @delphyr_global
+Bubble toner for deep hydration and skin barrier ✨
+Better absorption and zero waste</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>24.84076433121019</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.62208067940552</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.218683651804671</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.273885350318471</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@phungovahe/video/7486825787413384470</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>491</v>
+      </c>
+      <c r="C10" t="n">
+        <v>79</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>#grwm #grwmroutine #grwmmakeup</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>20.16293279022403</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.08961303462322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.073319755600814</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8146639511201629</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@phungovahe/video/7486217024302058774</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B11" t="n">
         <v>423</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C11" t="n">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>24</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>@delphyr_official @delphyr_global
 #skincare #skincarehacks #delphyr #delphyrcleansingfoam</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H11" t="n">
         <v>26.24113475177305</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I11" t="n">
         <v>20.56737588652482</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.673758865248227</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L11" t="n">
         <v>1.418439716312057</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@phungovahe/video/7485836012594236694</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>419</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" t="n">
         <v>82</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>37</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>@delphyr_official @delphyr_global
 #cleansingoil #cleansingfoam #delphyr #cleansingduo</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>28.40095465393795</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>19.57040572792363</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>8.83054892601432</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L12" t="n">
         <v>1.431980906921241</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@phungovahe/video/7485783528907476247</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>453</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C13" t="n">
         <v>102</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>31</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>YesStyle에서 내 코드 PTHL277 사용✨ @롬앤 romand @YesStyle @YesStyleInfluencers #yesstyle</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>29.3598233995585</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>22.51655629139073</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>6.843267108167771</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L13" t="n">
         <v>0.8830022075055187</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@phungovahe/video/7485103736168189207</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>524</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>99</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D14" t="n">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>11</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>YesStyle에서 내 코드 PTHL277 사용 @YesStyleInfluencers @YesStyle @Abib Cosmetics #yesstyle</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>26.52671755725191</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>18.89312977099237</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>7.633587786259542</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L14" t="n">
         <v>2.099236641221374</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@phungovahe/video/7484373044136267030</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>560</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>104</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>44</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>콩 우유 패드 @mixsoon_official @mixsoon_global @mixsoon @YesStyleInfluencers @YesStyle #mixsoon</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>26.42857142857143</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>18.57142857142857</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>7.857142857142857</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
